--- a/WebAPI/wwwroot/Plantillas/ResumenResultadosaValidarMonitoreo.xlsx
+++ b/WebAPI/wwwroot/Plantillas/ResumenResultadosaValidarMonitoreo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrojast\Documents\Plantillas_cu6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeli Rojas\Documents\SICA_INFOTEC\WebAPI\wwwroot\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6DB7B-C0F9-4672-BDBB-52EF9D4C7B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="4296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen a validar" sheetId="1" r:id="rId1"/>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,10 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,22 +419,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="P2" sqref="P2:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" customWidth="1"/>
-    <col min="19" max="19" width="14.21875" customWidth="1"/>
-    <col min="20" max="20" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="99.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/WebAPI/wwwroot/Plantillas/ResumenResultadosaValidarMonitoreo.xlsx
+++ b/WebAPI/wwwroot/Plantillas/ResumenResultadosaValidarMonitoreo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeli Rojas\Documents\SICA_INFOTEC\WebAPI\wwwroot\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6DB7B-C0F9-4672-BDBB-52EF9D4C7B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen a validar" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Clave Sitio</t>
   </si>
@@ -78,19 +77,22 @@
     <t>Se corre reglas de validación</t>
   </si>
   <si>
-    <t>Autorización de reglas cuando esté incompleto. (SI)</t>
-  </si>
-  <si>
-    <t>Cumple con todos los criterios para aplicar reglas? (SI/NO)</t>
-  </si>
-  <si>
     <t>Diferencia en días</t>
+  </si>
+  <si>
+    <t>Cumple con todos los criterios para aplicar reglas?  (SI/NO)</t>
+  </si>
+  <si>
+    <t>Autorización de reglas cuando esté incompleto (SI/NO)</t>
+  </si>
+  <si>
+    <t>Autorización de reglas cuando no cumple fecha de entrega (SI/NO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,6 +102,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,13 +135,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,84 +425,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="99.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="1" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="14.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="96" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="1"/>
+    <col min="18" max="18" width="23.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="27.109375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>